--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinyuqing02/Desktop/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinyuqing02/Desktop/stock/stock_work/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>富祥股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精细化工基础化工,而且普遍调高了今年收益预期，业绩会更好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +376,6 @@
     <t>我常问技术派的问题是：基本面怎么样？ 有同学特别看好一只股票时，我常问的问题是：黑天鹅是什么？ 有同学特偏爱依赖财报时，我常问的问题是：几个报表连起来看得出企业战略吗？ 也有的同学确实搞明白了一只票，这时我会问：能不能把一个细分行业搞懂？</t>
   </si>
   <si>
-    <t>13.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一季度利润同比下降，跌破年线还是谨慎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,67 +452,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成长股,当前估值稍微有点低，股东数减少，盈利数据较为可信，可继续加码。从融资融券余额看有点意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电为主，涉足电机物流等。有机会调仓到格力电器，那边估值低几个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易不少，多证券预测，貌似可信，股东人数在变多，历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期有些低估，考察除了政治原因，还有啥走低原因，对比工商每年分红就差距4个点，这么看就差不多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从财务来看，买一点完全不过分,有篇分析文章，说一二季度不达预期，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信维通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前处于上升期，但是从估值看也不低的。股东数稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电声器件研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>医药股，成长很快，估值一般，股东数很多，短期跌破年线，人均不到20w，预估盈利可能不可全信，否则年线跌破难看。不可信数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗交易多，最近大跌与兴科电子相关，前面90业务乐视，乐视拖欠，被资本不看好。现在客户已经多样化，业绩理论会好转。股东数增加16%略多，人均才20w+。 创新低，成交量低，至少短期能回到成本。盈利预期被调低，所以很多时候第一要问的就是盈利预期是否准确。这么一看，估值也没有那么低了，短期有了盈利可以出来，长期观察，是否能够达到预期的收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史成长股,当前估值稍微有点低，股东数减少，盈利数据较为可信，可继续加码。从融资融券余额看有点意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周线很漂亮，股东数略减少，少量大宗交易，历史盈利增长稳定。基金多，调整周期估计比较长。周线日线还要调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家电为主，涉足电机物流等。有机会调仓到格力电器，那边估值低几个点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗交易不少，多证券预测，貌似可信，股东人数在变多，历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期有些低估，考察除了政治原因，还有啥走低原因，对比工商每年分红就差距4个点，这么看就差不多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖代鸡引种与饲养，普遍下调了盈利预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从财务来看，买一点完全不过分,有篇分析文章，说一二季度不达预期，</t>
+    <t>祖代鸡引种与饲养，普遍下调了盈利预期,盈利大幅度下滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周线很漂亮，股东数略减少，但很多。少量大宗交易，历史盈利增长稳定。基金多，调整周期估计比较长。周线日线还要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察，半小时可以买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察，半小时买点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w+。 创新低，成交量低，至少短期能回到成本。盈利预期被调低，所以很多时候第一要问的就是盈利预期是否准确。准备一半退出来了，估值也就那么回事。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,10 +938,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>92.2</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>4.8600000000000003</v>
@@ -937,15 +957,15 @@
       </c>
       <c r="H2" s="2">
         <f>C2*D2/E2</f>
-        <v>30.966966136834831</v>
+        <v>29.892190739460954</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I61" si="0">C2*D2/F2</f>
-        <v>25.005133928571428</v>
+        <v>24.137276785714285</v>
       </c>
       <c r="J2" s="2">
         <f>C2*D2/G2</f>
-        <v>20.148021582733815</v>
+        <v>19.448741007194247</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -956,7 +976,7 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>16.809999999999999</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="D3">
         <v>2.52</v>
@@ -972,23 +992,23 @@
       </c>
       <c r="H3" s="2">
         <f>C3*D3/E3</f>
-        <v>29.831830985915492</v>
+        <v>32.209859154929582</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>14.557113402061853</v>
+        <v>15.717525773195876</v>
       </c>
       <c r="J3" s="2">
         <f>C3*D3/G3</f>
-        <v>11.899213483146067</v>
+        <v>12.847752808988764</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>34.68</v>
@@ -1018,7 +1038,7 @@
         <v>19.386335403726704</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1029,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>54.5</v>
+        <v>56.19</v>
       </c>
       <c r="D5">
         <v>1.1200000000000001</v>
@@ -1045,18 +1065,18 @@
       </c>
       <c r="H5" s="2">
         <f>C5*D5/E5</f>
-        <v>34.681818181818187</v>
+        <v>35.757272727272728</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>22.947368421052634</v>
+        <v>23.658947368421053</v>
       </c>
       <c r="J5" s="2">
         <f>C5*D5/G5</f>
-        <v>16.452830188679247</v>
+        <v>16.963018867924529</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1067,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5">
         <v>5.01</v>
@@ -1076,33 +1096,33 @@
         <v>1.53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H6" s="5">
         <f>C6*D6/E6</f>
-        <v>44.991764705882353</v>
+        <v>47.152941176470591</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>22.422605863192185</v>
+        <v>23.499674267100982</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J61" si="1">C6*D6/G6</f>
-        <v>14.899870129870131</v>
+        <v>15.615584415584417</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3">
         <v>7.7</v>
@@ -1132,12 +1152,12 @@
         <v>5.478548723649058</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>4.87</v>
@@ -1169,7 +1189,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1304,7 +1324,7 @@
         <v>20.466206206206202</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1342,10 +1362,10 @@
         <v>13.478144329896908</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1814,17 +1834,41 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H29" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29">
+        <v>35.44</v>
+      </c>
+      <c r="D29">
+        <v>9.83</v>
+      </c>
+      <c r="E29">
+        <v>5.32</v>
+      </c>
+      <c r="F29">
+        <v>9.23</v>
+      </c>
+      <c r="G29">
+        <v>13.58</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>65.484060150375939</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>37.743791982665222</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>25.653549337260678</v>
+      </c>
+      <c r="L29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1835,7 +1879,7 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>24.17</v>
+        <v>23.74</v>
       </c>
       <c r="D30">
         <v>12.41</v>
@@ -1851,21 +1895,21 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>22.792530395136779</v>
+        <v>22.38703647416413</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>13.462733393177738</v>
+        <v>13.223222621184917</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
-        <v>10.789557553956834</v>
+        <v>10.597604316546761</v>
       </c>
       <c r="K30" t="s">
         <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1873,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <v>19.899999999999999</v>
@@ -1903,21 +1947,42 @@
         <v>22.232859680284189</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H32" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>17.37</v>
+      </c>
+      <c r="D32">
+        <v>30.59</v>
+      </c>
+      <c r="E32">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F32">
+        <v>21.33</v>
+      </c>
+      <c r="G32">
+        <v>27.26</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>32.183422168382798</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>24.910843881856543</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>19.491867204695524</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1990,7 +2055,7 @@
         <v>18.559524752475248</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1998,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>14.01</v>
+        <v>14.45</v>
       </c>
       <c r="D35">
         <v>13.63</v>
@@ -2014,15 +2079,15 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>17.551130514705882</v>
+        <v>18.102343749999999</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>11.044320416425681</v>
+        <v>11.391179872758821</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
-        <v>11.80199629171817</v>
+        <v>12.172651421508034</v>
       </c>
       <c r="L35" t="s">
         <v>50</v>
@@ -2103,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>34.299999999999997</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="D38">
         <v>64.66</v>
@@ -2119,18 +2184,18 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>15.103772813947151</v>
+        <v>14.821953146281665</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>12.802112676056336</v>
+        <v>12.563239436619716</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
-        <v>11.275804565560017</v>
+        <v>11.065410544511668</v>
       </c>
       <c r="L38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,37 +2217,37 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>12.62</v>
+        <v>12.25</v>
       </c>
       <c r="D40">
         <v>91.27</v>
       </c>
       <c r="E40">
-        <v>105.21</v>
+        <v>105.51</v>
       </c>
       <c r="F40">
-        <v>122.29</v>
+        <v>121.9</v>
       </c>
       <c r="G40">
         <v>144.1</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>10.947888983936888</v>
+        <v>10.596696995545445</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>9.4188192002616713</v>
+        <v>9.1719237079573404</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
-        <v>7.9932505204718938</v>
+        <v>7.758900069396252</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2190,7 +2255,7 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>20.14</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D41">
         <v>22.14</v>
@@ -2206,18 +2271,18 @@
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>11.026201780415432</v>
+        <v>10.894807121661721</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>10.324139847186849</v>
+        <v>10.201111368372308</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
-        <v>9.2280546357615894</v>
+        <v>9.1180877483443705</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2225,7 +2290,7 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>12.98</v>
+        <v>13.08</v>
       </c>
       <c r="D42">
         <v>5.93</v>
@@ -2241,18 +2306,18 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>13.157504273504275</v>
+        <v>13.258871794871794</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>10.902464589235128</v>
+        <v>10.986458923512748</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="1"/>
-        <v>9.4097066014669934</v>
+        <v>9.4822004889975542</v>
       </c>
       <c r="L42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2309,7 +2374,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45">
         <v>36.9</v>
@@ -2339,12 +2404,12 @@
         <v>20.907223476297968</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46">
         <v>46.81</v>
@@ -2374,7 +2439,7 @@
         <v>23.226335877862596</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2444,7 +2509,7 @@
         <v>10.37601683029453</v>
       </c>
       <c r="L48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2479,7 +2544,7 @@
         <v>10.540178571428573</v>
       </c>
       <c r="L49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2515,7 +2580,7 @@
         <v>63</v>
       </c>
       <c r="C52">
-        <v>30.22</v>
+        <v>31.34</v>
       </c>
       <c r="D52">
         <v>2.94</v>
@@ -2531,21 +2596,21 @@
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>23.947924528301886</v>
+        <v>24.835471698113206</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>12.951428571428572</v>
+        <v>13.431428571428571</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="1"/>
-        <v>10.403606557377051</v>
+        <v>10.789180327868854</v>
       </c>
       <c r="K52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,7 +2618,7 @@
         <v>64</v>
       </c>
       <c r="C53">
-        <v>19.48</v>
+        <v>20.27</v>
       </c>
       <c r="D53">
         <v>5.64</v>
@@ -2569,21 +2634,21 @@
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>19.939600725952815</v>
+        <v>20.74823956442831</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>15.695314285714286</v>
+        <v>16.33182857142857</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="1"/>
-        <v>12.971334120425029</v>
+        <v>13.497378984651709</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2618,10 +2683,10 @@
         <v>16.590933333333332</v>
       </c>
       <c r="K54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2656,7 +2721,7 @@
         <v>18.16899886557005</v>
       </c>
       <c r="L55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,7 +2756,7 @@
         <v>26.942079741379313</v>
       </c>
       <c r="L56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,7 +2766,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>22.13</v>
@@ -2733,7 +2798,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>25.98</v>
@@ -2763,12 +2828,12 @@
         <v>17.2334</v>
       </c>
       <c r="L59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>22.58</v>
@@ -2800,10 +2865,10 @@
     </row>
     <row r="61" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>27.86</v>
+        <v>28.28</v>
       </c>
       <c r="D61">
         <v>22.78</v>
@@ -2819,31 +2884,31 @@
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>17.250633324272901</v>
+        <v>17.51069312313129</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>10.577513333333334</v>
+        <v>10.736973333333335</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="1"/>
-        <v>8.9387436619718308</v>
+        <v>9.0734985915492974</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>17.03</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="D13">
         <v>19.96</v>
@@ -1351,15 +1351,15 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>21.9727731092437</v>
+        <v>22.179211376858436</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>17.141643973777107</v>
+        <v>17.302692889561275</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>13.478144329896908</v>
+        <v>13.604773988897703</v>
       </c>
       <c r="K13" t="s">
         <v>91</v>
@@ -2098,7 +2098,7 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>32.65</v>
       </c>
       <c r="D36">
         <v>60.16</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>13.581993569131834</v>
+        <v>13.437942122186495</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>11.698073183666253</v>
+        <v>11.574002710506155</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
-        <v>10.375124118108179</v>
+        <v>10.26508492291612</v>
       </c>
       <c r="L36" t="s">
         <v>49</v>
@@ -2168,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>33.659999999999997</v>
+        <v>35.19</v>
       </c>
       <c r="D38">
         <v>64.66</v>
@@ -2177,22 +2177,22 @@
         <v>146.84</v>
       </c>
       <c r="F38">
-        <v>173.24</v>
+        <v>167</v>
       </c>
       <c r="G38">
         <v>196.69</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>14.821953146281665</v>
+        <v>15.495678289294467</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>12.563239436619716</v>
+        <v>13.6250622754491</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
-        <v>11.065410544511668</v>
+        <v>11.568383751080379</v>
       </c>
       <c r="L38" t="s">
         <v>110</v>
@@ -2580,7 +2580,7 @@
         <v>63</v>
       </c>
       <c r="C52">
-        <v>31.34</v>
+        <v>29.96</v>
       </c>
       <c r="D52">
         <v>2.94</v>
@@ -2596,15 +2596,15 @@
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>24.835471698113206</v>
+        <v>23.741886792452831</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>13.431428571428571</v>
+        <v>12.84</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="1"/>
-        <v>10.789180327868854</v>
+        <v>10.314098360655739</v>
       </c>
       <c r="K52" t="s">
         <v>95</v>
@@ -2909,6 +2909,30 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20160304</v>
+      </c>
+      <c r="B73">
+        <v>20170503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17.05</v>
+      </c>
+      <c r="B74">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17.29</v>
+      </c>
+      <c r="B75">
+        <v>32.65</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -536,11 +536,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w+。 创新低，成交量低，至少短期能回到成本。盈利预期被调低，所以很多时候第一要问的就是盈利预期是否准确。准备一半退出来了，估值也就那么回事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +887,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>56.19</v>
+        <v>54.86</v>
       </c>
       <c r="D5">
         <v>1.1200000000000001</v>
@@ -1065,15 +1065,15 @@
       </c>
       <c r="H5" s="2">
         <f>C5*D5/E5</f>
-        <v>35.757272727272728</v>
+        <v>34.910909090909094</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>23.658947368421053</v>
+        <v>23.098947368421054</v>
       </c>
       <c r="J5" s="2">
         <f>C5*D5/G5</f>
-        <v>16.963018867924529</v>
+        <v>16.561509433962264</v>
       </c>
       <c r="L5" t="s">
         <v>88</v>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="5">
         <v>5.01</v>
@@ -1103,21 +1103,21 @@
       </c>
       <c r="H6" s="5">
         <f>C6*D6/E6</f>
-        <v>47.152941176470591</v>
+        <v>45.351960784313718</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>23.499674267100982</v>
+        <v>22.602117263843649</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J61" si="1">C6*D6/G6</f>
-        <v>15.615584415584417</v>
+        <v>15.019155844155842</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>富祥股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,14 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电冰箱空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家用洗衣机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精细化工基础化工,而且普遍调高了今年收益预期，业绩会更好。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月线更牛逼，相对前两者，估值略高了点，流通才2.21*39.55 ，估计有这个溢价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大宗交易很多，盈利比前稳定，增长快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期股，低周期中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周线有背离的意思，，先看日线MACD回0轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,14 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从事尿素及TDI，换手率很高的博弈了，历史很一般，大宗交易不少。不碰了. 高换手博弈涨的也不少啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实冲着估值应该进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日线MACD背离，股东数减少。还是不敢买啊，日线MACD背离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,18 +396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>济川药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>想看看4/21开始的周线是否突破上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被年线压制，低增长。前面估值还高不少，这几天就连续下跌了，估值差不多了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,22 +424,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史成长股,当前估值稍微有点低，股东数减少，盈利数据较为可信，可继续加码。从融资融券余额看有点意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家电为主，涉足电机物流等。有机会调仓到格力电器，那边估值低几个点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗交易不少，多证券预测，貌似可信，股东人数在变多，历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>民生银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期有些低估，考察除了政治原因，还有啥走低原因，对比工商每年分红就差距4个点，这么看就差不多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从财务来看，买一点完全不过分,有篇分析文章，说一二季度不达预期，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医药股，成长很快，估值一般，股东数很多，短期跌破年线，人均不到20w，预估盈利可能不可全信，否则年线跌破难看。不可信数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>祖代鸡引种与饲养，普遍下调了盈利预期,盈利大幅度下滑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,19 +472,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观察，半小时可以买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>观察，半小时买点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w+。 创新低，成交量低，至少短期能回到成本。盈利预期被调低，所以很多时候第一要问的就是盈利预期是否准确。准备一半退出来了，估值也就那么回事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.85</t>
+    <t>13.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续看好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史不错，股东少人均300w，机构持仓太高。日线周线需要一个星期调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东数很多，短期跌破年线，人均不到20w，预估盈利可能不可全信，否则年线跌破难看。历史走势不咋样，从不分红。维生素E降价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东少，人均300w，分红比例较高。近期增长稳定，一季度稳定增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易很多，盈利比前稳定，增长快。近期解禁1.1亿，继续看，还有新低。人均20w不看好。大股东10%的股票要抛售，难怪。还有的跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w。 短期跌幅55%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比工商每年分红就差距4个点，这么看就差不多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红诱人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破年线，估值还是有点高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成长股,当前估值稍微有点低，股东数减少，盈利数据较为可信，可继续加码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走势更好没看懂为啥，收入增速超预期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点周期股的味道，所以要注意周期的威力，也许现在一切还好，业绩变脸，最后PE值得怀疑。周线上大阴线，不要买入了，看着就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东31w，这也许是美的走势更好的原因。小心翼翼的持有。日线顶分型，虽然不是很强的分型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事尿素及TDI，周期股，TDI价格大涨，今年截止目前是赚大钱。最近的跌停没看到？是快要到历史高点？从估值看，近期的利润，估计第二季度依然是超好的财报，是可以支撑超越历史高点的，然而整个TDI价格周期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDI，MDI价格大涨。也是周期股，比沧州大化要好一点。历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察，业绩好卖出？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细化工基础化工,而且普遍调高了今年收益预期，业绩会更好。但是历史月线走势好，是高科技企业，不完全是周期股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +908,7 @@
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="127.1640625" customWidth="1"/>
+    <col min="12" max="12" width="202.6640625" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -938,7 +946,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>89</v>
@@ -950,7 +958,7 @@
         <v>14.47</v>
       </c>
       <c r="F2">
-        <v>17.920000000000002</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G2">
         <v>22.24</v>
@@ -960,20 +968,23 @@
         <v>29.892190739460954</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I61" si="0">C2*D2/F2</f>
-        <v>24.137276785714285</v>
+        <f t="shared" ref="I2:I60" si="0">C2*D2/F2</f>
+        <v>23.897237569060774</v>
       </c>
       <c r="J2" s="2">
         <f>C2*D2/G2</f>
         <v>19.448741007194247</v>
       </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>18.149999999999999</v>
@@ -1003,12 +1014,12 @@
         <v>12.847752808988764</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>34.68</v>
@@ -1038,7 +1049,7 @@
         <v>19.386335403726704</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>54.86</v>
+        <v>54.2</v>
       </c>
       <c r="D5">
         <v>1.1200000000000001</v>
@@ -1058,25 +1069,25 @@
         <v>1.76</v>
       </c>
       <c r="F5">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G5">
-        <v>3.71</v>
+        <v>3.47</v>
       </c>
       <c r="H5" s="2">
         <f>C5*D5/E5</f>
-        <v>34.910909090909094</v>
+        <v>34.490909090909092</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>23.098947368421054</v>
+        <v>23.347692307692309</v>
       </c>
       <c r="J5" s="2">
         <f>C5*D5/G5</f>
-        <v>16.561509433962264</v>
+        <v>17.493948126801154</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5">
         <v>5.01</v>
@@ -1096,36 +1107,34 @@
         <v>1.53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H6" s="5">
         <f>C6*D6/E6</f>
-        <v>45.351960784313718</v>
+        <v>42.699607843137251</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>22.602117263843649</v>
+        <v>21.280260586319219</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J61" si="1">C6*D6/G6</f>
-        <v>15.019155844155842</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" ref="J6:J60" si="1">C6*D6/G6</f>
+        <v>14.140779220779219</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
-        <v>7.7</v>
+        <v>7.58</v>
       </c>
       <c r="D7" s="3">
         <v>364.85</v>
@@ -1140,24 +1149,24 @@
         <v>512.79</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H61" si="2">C7*D7/E7</f>
-        <v>5.8720084442865206</v>
+        <f t="shared" ref="H7:H60" si="2">C7*D7/E7</f>
+        <v>5.7804966243755622</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>5.7129537366548044</v>
+        <v>5.6239206914082365</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>5.478548723649058</v>
+        <v>5.3931687435402411</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>4.87</v>
@@ -1186,13 +1195,16 @@
         <f t="shared" si="1"/>
         <v>5.7804934924800513</v>
       </c>
+      <c r="L8" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8.68</v>
       </c>
       <c r="D9">
         <v>152.07</v>
@@ -1208,15 +1220,18 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>7.6880687563195131</v>
+        <v>7.4147152005392645</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>6.9122727272727262</v>
+        <v>6.6665030303030299</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>6.2004711638653554</v>
+        <v>5.9800099669279208</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1227,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>22.57</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1243,15 +1258,15 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>26.436310395314788</v>
+        <v>23.625183016105417</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>24.010638297872344</v>
+        <v>21.457446808510642</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>21.31759149940968</v>
+        <v>19.050767414403779</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1262,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>34.700000000000003</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1278,23 +1293,23 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>25.608856088560884</v>
+        <v>24.634686346863472</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>21.463917525773198</v>
+        <v>20.647422680412376</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>17.994814174589457</v>
+        <v>17.310285220397581</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>47.11</v>
@@ -1324,7 +1339,7 @@
         <v>20.466206206206202</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1335,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>17.190000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="D13">
         <v>19.96</v>
@@ -1351,21 +1366,21 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>22.179211376858436</v>
+        <v>21.546994182288298</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>17.302692889561275</v>
+        <v>16.809480584972267</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>13.604773988897703</v>
+        <v>13.216970658207773</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1417,7 +1432,7 @@
         <v>17.171999999999997</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1504,7 +1519,7 @@
         <v>21.189714867617109</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>84.02</v>
+        <v>95.11</v>
       </c>
       <c r="D27">
         <v>4.45</v>
@@ -1780,22 +1795,22 @@
         <v>11.55</v>
       </c>
       <c r="G27">
-        <v>14.6</v>
+        <v>14.27</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>43.627654609101519</v>
+        <v>49.38617269544924</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>32.371341991341993</v>
+        <v>36.644112554112553</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>25.608835616438359</v>
+        <v>29.659390329362299</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1835,10 +1850,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C29">
         <v>35.44</v>
@@ -1868,7 +1883,7 @@
         <v>25.653549337260678</v>
       </c>
       <c r="L29" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1879,7 +1894,7 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>23.74</v>
+        <v>22.33</v>
       </c>
       <c r="D30">
         <v>12.41</v>
@@ -1895,29 +1910,29 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>22.38703647416413</v>
+        <v>21.057393617021276</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>13.223222621184917</v>
+        <v>12.437850089766606</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
-        <v>10.597604316546761</v>
+        <v>9.9681762589928056</v>
       </c>
       <c r="K30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>19.899999999999999</v>
@@ -1947,15 +1962,15 @@
         <v>22.232859680284189</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C32">
         <v>17.37</v>
@@ -2055,7 +2070,7 @@
         <v>18.559524752475248</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2063,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>14.45</v>
+        <v>14.08</v>
       </c>
       <c r="D35">
         <v>13.63</v>
@@ -2079,18 +2094,18 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>18.102343749999999</v>
+        <v>17.638823529411763</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>11.391179872758821</v>
+        <v>11.099502602660499</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
-        <v>12.172651421508034</v>
+        <v>11.860964153275649</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2098,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>32.65</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="D36">
         <v>60.16</v>
@@ -2114,18 +2129,18 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>13.437942122186495</v>
+        <v>13.487331189710613</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>11.574002710506155</v>
+        <v>11.616541158446763</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
-        <v>10.26508492291612</v>
+        <v>10.302812646981971</v>
       </c>
       <c r="L36" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2133,7 +2148,7 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>46.73</v>
+        <v>47.05</v>
       </c>
       <c r="D37">
         <v>6.32</v>
@@ -2149,18 +2164,18 @@
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>25.134774468085105</v>
+        <v>25.306893617021277</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>20.21448323066393</v>
+        <v>20.352908966461328</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
-        <v>16.828125356125355</v>
+        <v>16.943361823361823</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2168,7 +2183,7 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>35.19</v>
+        <v>36.31</v>
       </c>
       <c r="D38">
         <v>64.66</v>
@@ -2184,18 +2199,18 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>15.495678289294467</v>
+        <v>15.988862707709071</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>13.6250622754491</v>
+        <v>14.058710179640718</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
-        <v>11.568383751080379</v>
+        <v>11.936573287914992</v>
       </c>
       <c r="L38" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2214,10 +2229,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>12.25</v>
+        <v>11.67</v>
       </c>
       <c r="D40">
         <v>91.27</v>
@@ -2226,36 +2241,36 @@
         <v>105.51</v>
       </c>
       <c r="F40">
-        <v>121.9</v>
+        <v>120</v>
       </c>
       <c r="G40">
-        <v>144.1</v>
+        <v>140</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>10.596696995545445</v>
+        <v>10.094975831674722</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>9.1719237079573404</v>
+        <v>8.8760074999999983</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
-        <v>7.758900069396252</v>
+        <v>7.6080064285714277</v>
       </c>
       <c r="K40" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41">
-        <v>19.899999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="D41">
         <v>22.14</v>
@@ -2271,26 +2286,26 @@
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>10.894807121661721</v>
+        <v>10.785311572700298</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>10.201111368372308</v>
+        <v>10.09858763602686</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
-        <v>9.1180877483443705</v>
+        <v>9.0264486754966882</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>13.08</v>
+        <v>12.66</v>
       </c>
       <c r="D42">
         <v>5.93</v>
@@ -2306,18 +2321,18 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>13.258871794871794</v>
+        <v>12.833128205128205</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>10.986458923512748</v>
+        <v>10.633682719546741</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="1"/>
-        <v>9.4822004889975542</v>
+        <v>9.1777261613691916</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2336,10 +2351,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>44.56</v>
@@ -2369,12 +2384,12 @@
         <v>21.12190748688603</v>
       </c>
       <c r="L44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>36.9</v>
@@ -2404,12 +2419,12 @@
         <v>20.907223476297968</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>46.81</v>
@@ -2439,12 +2454,12 @@
         <v>23.226335877862596</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>26.3</v>
@@ -2474,15 +2489,15 @@
         <v>9.9648955661414451</v>
       </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>22.15</v>
+        <v>21.03</v>
       </c>
       <c r="D48">
         <v>3.34</v>
@@ -2498,26 +2513,26 @@
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>13.163879003558717</v>
+        <v>12.498256227758008</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>12.330166666666665</v>
+        <v>11.7067</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="1"/>
-        <v>10.37601683029453</v>
+        <v>9.8513604488078546</v>
       </c>
       <c r="L48" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>31.48</v>
+        <v>30.48</v>
       </c>
       <c r="D49">
         <v>43.5</v>
@@ -2533,18 +2548,18 @@
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>11.614758269720102</v>
+        <v>11.245801526717557</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>12.390336590662326</v>
+        <v>11.996742671009773</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="1"/>
-        <v>10.540178571428573</v>
+        <v>10.205357142857144</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,363 +2590,365 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52">
-        <v>29.96</v>
-      </c>
-      <c r="D52">
-        <v>2.94</v>
-      </c>
-      <c r="E52">
-        <v>3.71</v>
-      </c>
-      <c r="F52">
-        <v>6.86</v>
-      </c>
-      <c r="G52">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="2"/>
-        <v>23.741886792452831</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="0"/>
-        <v>12.84</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="1"/>
-        <v>10.314098360655739</v>
-      </c>
-      <c r="K52" t="s">
-        <v>95</v>
-      </c>
-      <c r="L52" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53">
-        <v>20.27</v>
+        <v>30.8</v>
       </c>
       <c r="D53">
-        <v>5.64</v>
+        <v>10.1</v>
       </c>
       <c r="E53">
-        <v>5.51</v>
+        <v>7.06</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>12.83</v>
       </c>
       <c r="G53">
-        <v>8.4700000000000006</v>
+        <v>18.75</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>20.74823956442831</v>
+        <v>44.062322946175641</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>16.33182857142857</v>
+        <v>24.246297739672642</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="1"/>
-        <v>13.497378984651709</v>
+        <v>16.590933333333332</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54">
-        <v>30.8</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="D54">
-        <v>10.1</v>
+        <v>17.93</v>
       </c>
       <c r="E54">
-        <v>7.06</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="F54">
-        <v>12.83</v>
+        <v>23.49</v>
       </c>
       <c r="G54">
-        <v>18.75</v>
+        <v>35.26</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>44.062322946175641</v>
+        <v>39.618979591836727</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>24.246297739672642</v>
+        <v>27.272835249042146</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="1"/>
-        <v>16.590933333333332</v>
-      </c>
-      <c r="K54" t="s">
-        <v>98</v>
+        <v>18.16899886557005</v>
       </c>
       <c r="L54" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>35.729999999999997</v>
+        <v>39.25</v>
       </c>
       <c r="D55">
-        <v>17.93</v>
+        <v>6.37</v>
       </c>
       <c r="E55">
-        <v>16.170000000000002</v>
+        <v>3.33</v>
       </c>
       <c r="F55">
-        <v>23.49</v>
+        <v>6.04</v>
       </c>
       <c r="G55">
-        <v>35.26</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>39.618979591836727</v>
+        <v>75.081831831831835</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>27.272835249042146</v>
+        <v>41.394453642384107</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="1"/>
-        <v>18.16899886557005</v>
+        <v>26.942079741379313</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56">
-        <v>39.25</v>
-      </c>
-      <c r="D56">
-        <v>6.37</v>
-      </c>
-      <c r="E56">
-        <v>3.33</v>
-      </c>
-      <c r="F56">
-        <v>6.04</v>
-      </c>
-      <c r="G56">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="2"/>
-        <v>75.081831831831835</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="0"/>
-        <v>41.394453642384107</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="1"/>
-        <v>26.942079741379313</v>
-      </c>
-      <c r="L56" t="s">
-        <v>77</v>
-      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>22.13</v>
+      </c>
+      <c r="D57">
+        <v>7.76</v>
+      </c>
+      <c r="E57">
+        <v>6.71</v>
+      </c>
+      <c r="F57">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G57">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="2"/>
+        <v>25.592965722801786</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="0"/>
+        <v>21.385902864259027</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="1"/>
+        <v>18.0198111227702</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58">
-        <v>22.13</v>
+        <v>25.98</v>
       </c>
       <c r="D58">
-        <v>7.76</v>
+        <v>3.98</v>
       </c>
       <c r="E58">
-        <v>6.71</v>
+        <v>3.47</v>
       </c>
       <c r="F58">
-        <v>8.0299999999999994</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G58">
-        <v>9.5299999999999994</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>25.592965722801786</v>
+        <v>29.798386167146973</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>21.385902864259027</v>
+        <v>22.675526315789476</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="1"/>
-        <v>18.0198111227702</v>
+        <v>17.2334</v>
+      </c>
+      <c r="L58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>25.98</v>
+        <v>22.58</v>
       </c>
       <c r="D59">
-        <v>3.98</v>
+        <v>25.09</v>
       </c>
       <c r="E59">
-        <v>3.47</v>
+        <v>31.44</v>
       </c>
       <c r="F59">
-        <v>4.5599999999999996</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>40.6</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>29.798386167146973</v>
+        <v>18.019472010178117</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>22.675526315789476</v>
+        <v>15.824921787709497</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="1"/>
-        <v>17.2334</v>
-      </c>
-      <c r="L59" t="s">
+        <v>13.953995073891624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>81</v>
-      </c>
       <c r="C60">
-        <v>22.58</v>
+        <v>26.7</v>
       </c>
       <c r="D60">
-        <v>25.09</v>
+        <v>22.78</v>
       </c>
       <c r="E60">
-        <v>31.44</v>
+        <v>36.79</v>
       </c>
       <c r="F60">
-        <v>35.799999999999997</v>
+        <v>60</v>
       </c>
       <c r="G60">
-        <v>40.6</v>
+        <v>71</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>18.019472010178117</v>
+        <v>16.532372927425932</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>15.824921787709497</v>
+        <v>10.1371</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="1"/>
-        <v>13.953995073891624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.566563380281691</v>
+      </c>
+      <c r="K60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>28.28</v>
+        <v>27.33</v>
       </c>
       <c r="D61">
-        <v>22.78</v>
+        <v>2.94</v>
       </c>
       <c r="E61">
-        <v>36.79</v>
+        <v>3.71</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>8.84</v>
       </c>
       <c r="G61">
-        <v>71</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="2"/>
-        <v>17.51069312313129</v>
+        <f>C61*D61/E61</f>
+        <v>21.6577358490566</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="0"/>
-        <v>10.736973333333335</v>
+        <f>C61*D61/F61</f>
+        <v>9.089389140271491</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="1"/>
-        <v>9.0734985915492974</v>
+        <f>C61*D61/G61</f>
+        <v>9.408688524590163</v>
       </c>
       <c r="K61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>19.88</v>
+      </c>
+      <c r="D62">
+        <v>5.64</v>
+      </c>
+      <c r="E62">
+        <v>5.51</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H62" s="2">
+        <f>C62*D62/E62</f>
+        <v>20.349038112522685</v>
+      </c>
+      <c r="I62" s="2">
+        <f>C62*D62/F62</f>
+        <v>16.017599999999998</v>
+      </c>
+      <c r="J62" s="2">
+        <f>C62*D62/G62</f>
+        <v>13.237685950413221</v>
+      </c>
+      <c r="L62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>86</v>
-      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>20160304</v>
-      </c>
-      <c r="B73">
-        <v>20170503</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17.05</v>
+        <v>20160304</v>
       </c>
       <c r="B74">
-        <v>35.19</v>
+        <v>20170503</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
+        <v>17.05</v>
+      </c>
+      <c r="B75">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>17.29</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>32.65</v>
       </c>
     </row>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,7 +2708,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>22.13</v>
+        <v>16.14</v>
       </c>
       <c r="D57">
         <v>7.76</v>
@@ -2724,15 +2724,15 @@
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>25.592965722801786</v>
+        <v>18.66563338301043</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>21.385902864259027</v>
+        <v>15.597310087173101</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="1"/>
-        <v>18.0198111227702</v>
+        <v>13.142329485834209</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>富祥股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,18 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天齐锂业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有色冶炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产销售锂系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牧原股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生猪养殖与销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月线更牛逼，相对前两者，估值略高了点，流通才2.21*39.55 ，估计有这个溢价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,17 +337,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人护理锂离子电池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我常问技术派的问题是：基本面怎么样？ 有同学特别看好一只股票时，我常问的问题是：黑天鹅是什么？ 有同学特偏爱依赖财报时，我常问的问题是：几个报表连起来看得出企业战略吗？ 也有的同学确实搞明白了一只票，这时我会问：能不能把一个细分行业搞懂？</t>
   </si>
   <si>
-    <t>一季度利润同比下降，跌破年线还是谨慎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期股，低周期中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被年线压制，低增长。前面估值还高不少，这几天就连续下跌了，估值差不多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电器件研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,14 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,14 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从财务来看，买一点完全不过分,有篇分析文章，说一二季度不达预期，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信维通信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,14 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观察，半小时买点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续看好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w。 短期跌幅55%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对比工商每年分红就差距4个点，这么看就差不多了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,14 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>破年线，估值还是有点高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史成长股,当前估值稍微有点低，股东数减少，盈利数据较为可信，可继续加码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>走势更好没看懂为啥，收入增速超预期？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,19 +468,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从事尿素及TDI，周期股，TDI价格大涨，今年截止目前是赚大钱。最近的跌停没看到？是快要到历史高点？从估值看，近期的利润，估计第二季度依然是超好的财报，是可以支撑超越历史高点的，然而整个TDI价格周期？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDI，MDI价格大涨。也是周期股，比沧州大化要好一点。历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>观察，业绩好卖出？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精细化工基础化工,而且普遍调高了今年收益预期，业绩会更好。但是历史月线走势好，是高科技企业，不完全是周期股</t>
+    <t>TDI，MDI价格大涨。也是周期股，可能是周期股快要业绩恶化开始跌，问题是这个二季度肯定还是利润很大的。比沧州大化要好一点。历史新高的位置，看是否能够突破，这一波涨幅略猛。还是可以找机会入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/12, 23.17可买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w。 短期跌幅55%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生猪养殖与销售。人均70w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料成本上升，概念而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长安汽车的B股，貌似带杠杆？没看懂，估值更低。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有7ge点左右的利息吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然我喜欢用招商，为啥这个估值会高些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细化工基础化工,而且普遍调高了今年收益预期，业绩会更好。但是历史月线走势好，是高科技企业，不完全是周期股。走势稳健抗跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被年线压制，低增长。前面估值还高不少。一季度下滑50%，业绩疑问。 机构减持很厉害。等下个季度看机构持仓如何。不敢买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一季度利润同比下降16%。分不清那只靠谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估分红4.5个点。成长弱。 感觉有点过分了。没见过股东人数变多，而股价涨的。股东增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有篇分析文章，说一二季度不达预期。收入增长11个点，比另外的好呀，貌似优秀一点。人均100w+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貌似这个好点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成长股,股东数减少，盈利数据较为可信，可继续加码。貌似也周期过。周线能否支撑？ 短线想介入1. 大盘不合适 2. MACD还是不合适，年线也许可以短暂的破，忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安进食品明天弱低开可以考虑模拟入手，看效果如何。29附近都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆基股份关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事尿素及TDI，周期股，TDI价格大涨，今年截止目前是赚大钱。最近的跌停没看到？是快要到历史高点？从估值看，近期的利润，估计第二季度依然是超好的财报，是可以支撑超越历史高点的，然而整个TDI价格周期？机构持仓很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈打脸，大盘V，跌至28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +931,7 @@
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
     <col min="12" max="12" width="202.6640625" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" customWidth="1"/>
   </cols>
@@ -946,7 +970,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>89</v>
@@ -976,15 +1000,15 @@
         <v>19.448741007194247</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>18.149999999999999</v>
@@ -1014,12 +1038,12 @@
         <v>12.847752808988764</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>34.68</v>
@@ -1049,7 +1073,7 @@
         <v>19.386335403726704</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1060,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>54.2</v>
+        <v>48.27</v>
       </c>
       <c r="D5">
         <v>1.1200000000000001</v>
@@ -1076,18 +1100,18 @@
       </c>
       <c r="H5" s="2">
         <f>C5*D5/E5</f>
-        <v>34.490909090909092</v>
+        <v>30.717272727272732</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>23.347692307692309</v>
+        <v>20.793230769230771</v>
       </c>
       <c r="J5" s="2">
         <f>C5*D5/G5</f>
-        <v>17.493948126801154</v>
+        <v>15.579942363112394</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,43 +1122,43 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5">
         <v>5.01</v>
       </c>
-      <c r="E6" s="5">
-        <v>1.53</v>
+      <c r="E6" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H6" s="5">
         <f>C6*D6/E6</f>
-        <v>42.699607843137251</v>
+        <v>36.855172413793106</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>21.280260586319219</v>
+        <v>20.686451612903227</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J60" si="1">C6*D6/G6</f>
-        <v>14.140779220779219</v>
+        <v>14.250666666666667</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3">
-        <v>7.58</v>
+        <v>8.11</v>
       </c>
       <c r="D7" s="3">
         <v>364.85</v>
@@ -1150,26 +1174,26 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H60" si="2">C7*D7/E7</f>
-        <v>5.7804966243755622</v>
+        <v>6.1846738289822962</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>5.6239206914082365</v>
+        <v>6.0171499745805797</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>5.3931687435402411</v>
+        <v>5.770263655687514</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>4.87</v>
+        <v>5.16</v>
       </c>
       <c r="D8">
         <v>3564.06</v>
@@ -1185,53 +1209,53 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>6.2379279709900128</v>
+        <v>6.6093856941085143</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>6.079010167307012</v>
+        <v>6.4410046125881273</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>5.7804934924800513</v>
+        <v>6.1247117908002187</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C9">
-        <v>8.68</v>
+        <v>22.95</v>
       </c>
       <c r="D9">
-        <v>152.07</v>
+        <v>252.2</v>
       </c>
       <c r="E9">
-        <v>178.02</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="F9">
-        <v>198</v>
+        <v>673.1</v>
       </c>
       <c r="G9">
-        <v>220.73</v>
+        <v>743.4</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>7.4147152005392645</v>
+        <v>9.3234375000000007</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>6.6665030303030299</v>
+        <v>8.5990046055563809</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>5.9800099669279208</v>
+        <v>7.7858353510895881</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1306,10 +1330,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>47.11</v>
@@ -1339,7 +1363,7 @@
         <v>20.466206206206202</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1350,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>16.7</v>
+        <v>14.44</v>
       </c>
       <c r="D13">
         <v>19.96</v>
@@ -1366,21 +1390,21 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>21.546994182288298</v>
+        <v>18.631053652230122</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>16.809480584972267</v>
+        <v>14.534664649520929</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>13.216970658207773</v>
+        <v>11.42832672482157</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1432,7 +1456,7 @@
         <v>17.171999999999997</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1519,7 +1543,7 @@
         <v>21.189714867617109</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1565,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>280.49</v>
+        <v>242.7</v>
       </c>
       <c r="D20">
         <v>0.71</v>
@@ -1581,15 +1605,15 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>34.042376068376072</v>
+        <v>29.455897435897434</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>28.048999999999999</v>
+        <v>24.27</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
-        <v>24.051678743961354</v>
+        <v>20.811231884057971</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1810,7 +1834,7 @@
         <v>29.659390329362299</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1850,10 +1874,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>35.44</v>
@@ -1883,7 +1907,7 @@
         <v>25.653549337260678</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1894,7 +1918,7 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>22.33</v>
+        <v>23.17</v>
       </c>
       <c r="D30">
         <v>12.41</v>
@@ -1910,29 +1934,29 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>21.057393617021276</v>
+        <v>21.849521276595748</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>12.437850089766606</v>
+        <v>12.905731597845602</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
-        <v>9.9681762589928056</v>
+        <v>10.343154676258994</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>19.899999999999999</v>
@@ -1962,15 +1986,15 @@
         <v>22.232859680284189</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>17.37</v>
@@ -2008,10 +2032,10 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>55.47</v>
+        <v>39.78</v>
       </c>
       <c r="D33">
-        <v>7.3</v>
+        <v>9.49</v>
       </c>
       <c r="E33">
         <v>12.07</v>
@@ -2024,15 +2048,15 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>33.54855012427506</v>
+        <v>31.276901408450705</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>25.973765234124439</v>
+        <v>24.215022450288647</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="1"/>
-        <v>20.276965448172259</v>
+        <v>18.903965948923386</v>
       </c>
       <c r="L33" t="s">
         <v>48</v>
@@ -2043,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>44.49</v>
+        <v>48.64</v>
       </c>
       <c r="D34">
         <v>6.32</v>
@@ -2059,18 +2083,18 @@
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>26.083191094619668</v>
+        <v>28.516215213358073</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>21.949789227166278</v>
+        <v>23.997252146760346</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="1"/>
-        <v>18.559524752475248</v>
+        <v>20.290745874587461</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2078,7 +2102,7 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>14.08</v>
+        <v>13.08</v>
       </c>
       <c r="D35">
         <v>13.63</v>
@@ -2094,18 +2118,18 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>17.638823529411763</v>
+        <v>16.386066176470589</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>11.099502602660499</v>
+        <v>10.311185656448815</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
-        <v>11.860964153275649</v>
+        <v>11.01856613102596</v>
       </c>
       <c r="L35" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2113,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>32.770000000000003</v>
+        <v>33.07</v>
       </c>
       <c r="D36">
         <v>60.16</v>
@@ -2129,18 +2153,18 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>13.487331189710613</v>
+        <v>13.610803858520901</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>11.616541158446763</v>
+        <v>11.722887278298273</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
-        <v>10.302812646981971</v>
+        <v>10.397131957146589</v>
       </c>
       <c r="L36" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2148,7 +2172,7 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>47.05</v>
+        <v>44.7</v>
       </c>
       <c r="D37">
         <v>6.32</v>
@@ -2164,15 +2188,15 @@
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>25.306893617021277</v>
+        <v>24.042893617021278</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>20.352908966461328</v>
+        <v>19.336344969199182</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
-        <v>16.943361823361823</v>
+        <v>16.097094017094019</v>
       </c>
       <c r="L37" t="s">
         <v>49</v>
@@ -2183,7 +2207,7 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>36.31</v>
+        <v>35.75</v>
       </c>
       <c r="D38">
         <v>64.66</v>
@@ -2199,18 +2223,18 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>15.988862707709071</v>
+        <v>15.742270498501769</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>14.058710179640718</v>
+        <v>13.84188622754491</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
-        <v>11.936573287914992</v>
+        <v>11.752478519497686</v>
       </c>
       <c r="L38" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2232,7 +2256,7 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>11.67</v>
+        <v>11.86</v>
       </c>
       <c r="D40">
         <v>91.27</v>
@@ -2241,28 +2265,28 @@
         <v>105.51</v>
       </c>
       <c r="F40">
-        <v>120</v>
+        <v>118.2</v>
       </c>
       <c r="G40">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>10.094975831674722</v>
+        <v>10.259332764666855</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>8.8760074999999983</v>
+        <v>9.1578866328257185</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
-        <v>7.6080064285714277</v>
+        <v>7.622973239436619</v>
       </c>
       <c r="K40" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,7 +2294,7 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>19.7</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="D41">
         <v>22.14</v>
@@ -2279,25 +2303,25 @@
         <v>40.44</v>
       </c>
       <c r="F41">
-        <v>43.19</v>
+        <v>42.86</v>
       </c>
       <c r="G41">
         <v>48.32</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>10.785311572700298</v>
+        <v>10.593694362017805</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>10.09858763602686</v>
+        <v>9.9955436304246401</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
-        <v>9.0264486754966882</v>
+        <v>8.8660802980132463</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2305,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>12.66</v>
+        <v>10.27</v>
       </c>
       <c r="D42">
         <v>5.93</v>
@@ -2314,85 +2338,106 @@
         <v>5.85</v>
       </c>
       <c r="F42">
-        <v>7.06</v>
+        <v>7.48</v>
       </c>
       <c r="G42">
-        <v>8.18</v>
+        <v>8.67</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>12.833128205128205</v>
+        <v>10.410444444444444</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>10.633682719546741</v>
+        <v>8.1418582887700524</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="1"/>
-        <v>9.1777261613691916</v>
+        <v>7.0243483275663197</v>
       </c>
       <c r="L42" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H43" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>13.54</v>
+      </c>
+      <c r="D43">
+        <v>48.03</v>
+      </c>
+      <c r="E43">
+        <v>102.85</v>
+      </c>
+      <c r="F43">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>115</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3230549343704423</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1351528301886793</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>5.655010434782608</v>
+      </c>
+      <c r="L43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C44">
-        <v>44.56</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="D44">
-        <v>9.94</v>
+        <v>48.03</v>
       </c>
       <c r="E44">
-        <v>15.12</v>
+        <v>102.85</v>
       </c>
       <c r="F44">
-        <v>18.3</v>
+        <v>106</v>
       </c>
       <c r="G44">
-        <v>20.97</v>
+        <v>115</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>29.294074074074075</v>
+        <v>4.7726456003889171</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>24.203628415300546</v>
+        <v>4.6308169811320763</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="1"/>
-        <v>21.12190748688603</v>
+        <v>4.2684052173913045</v>
+      </c>
+      <c r="K44" t="s">
+        <v>123</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C45">
-        <v>36.9</v>
+        <v>41.2</v>
       </c>
       <c r="D45">
         <v>7.53</v>
@@ -2408,26 +2453,26 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>59.882974137931029</v>
+        <v>66.861206896551735</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>27.64746268656716</v>
+        <v>30.869253731343285</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="1"/>
-        <v>20.907223476297968</v>
+        <v>23.343566591422128</v>
       </c>
       <c r="L45" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C46">
-        <v>46.81</v>
+        <v>36.54</v>
       </c>
       <c r="D46">
         <v>3.25</v>
@@ -2443,26 +2488,26 @@
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>38.417297979797979</v>
+        <v>29.988636363636363</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>29.369208494208493</v>
+        <v>22.925675675675677</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="1"/>
-        <v>23.226335877862596</v>
+        <v>18.130534351145037</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>26.3</v>
+        <v>25.15</v>
       </c>
       <c r="D47">
         <v>10.34</v>
@@ -2471,33 +2516,33 @@
         <v>23.14</v>
       </c>
       <c r="F47">
-        <v>26.69</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>27.29</v>
+        <v>31</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>11.752031114952464</v>
+        <v>11.238159031979256</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>10.188909704008992</v>
+        <v>8.6683666666666657</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="1"/>
-        <v>9.9648955661414451</v>
+        <v>8.3887419354838713</v>
       </c>
       <c r="L47" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48">
-        <v>21.03</v>
+        <v>20.39</v>
       </c>
       <c r="D48">
         <v>3.34</v>
@@ -2506,33 +2551,33 @@
         <v>5.62</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>7.13</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>12.498256227758008</v>
+        <v>12.117900355871885</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>11.7067</v>
+        <v>34.051299999999998</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="1"/>
-        <v>9.8513604488078546</v>
+        <v>34.051299999999998</v>
       </c>
       <c r="L48" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>30.48</v>
+        <v>28.31</v>
       </c>
       <c r="D49">
         <v>43.5</v>
@@ -2541,25 +2586,25 @@
         <v>117.9</v>
       </c>
       <c r="F49">
-        <v>110.52</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>129.91999999999999</v>
+        <v>105</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>11.245801526717557</v>
+        <v>10.445165394402034</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>11.996742671009773</v>
+        <v>12.31485</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="1"/>
-        <v>10.205357142857144</v>
+        <v>11.728428571428571</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2592,10 +2637,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>30.8</v>
+        <v>32.81</v>
       </c>
       <c r="D53">
         <v>10.1</v>
@@ -2611,29 +2656,29 @@
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>44.062322946175641</v>
+        <v>46.937818696883859</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>24.246297739672642</v>
+        <v>25.828604832424009</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="1"/>
-        <v>16.590933333333332</v>
+        <v>17.673653333333334</v>
       </c>
       <c r="K53" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C54">
-        <v>35.729999999999997</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="D54">
         <v>17.93</v>
@@ -2649,23 +2694,23 @@
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>39.618979591836727</v>
+        <v>43.067482993197274</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>27.272835249042146</v>
+        <v>29.64670923797361</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="1"/>
-        <v>18.16899886557005</v>
+        <v>19.750459444129326</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>39.25</v>
@@ -2677,10 +2722,10 @@
         <v>3.33</v>
       </c>
       <c r="F55">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="G55">
-        <v>9.2799999999999994</v>
+        <v>10.3</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
@@ -2688,14 +2733,14 @@
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>41.394453642384107</v>
+        <v>40.326209677419357</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="1"/>
-        <v>26.942079741379313</v>
+        <v>24.274029126213591</v>
       </c>
       <c r="L55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2705,7 +2750,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>16.14</v>
@@ -2737,7 +2782,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>25.98</v>
@@ -2767,12 +2812,12 @@
         <v>17.2334</v>
       </c>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>22.58</v>
@@ -2804,13 +2849,13 @@
     </row>
     <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C60">
-        <v>26.7</v>
+        <v>23.11</v>
       </c>
       <c r="D60">
-        <v>22.78</v>
+        <v>27.34</v>
       </c>
       <c r="E60">
         <v>36.79</v>
@@ -2823,29 +2868,29 @@
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>16.532372927425932</v>
+        <v>17.17388964392498</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>10.1371</v>
+        <v>10.530456666666668</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="1"/>
-        <v>8.566563380281691</v>
+        <v>8.8989774647887323</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>27.33</v>
+        <v>26.12</v>
       </c>
       <c r="D61">
         <v>2.94</v>
@@ -2861,29 +2906,29 @@
       </c>
       <c r="H61" s="2">
         <f>C61*D61/E61</f>
-        <v>21.6577358490566</v>
+        <v>20.698867924528301</v>
       </c>
       <c r="I61" s="2">
         <f>C61*D61/F61</f>
-        <v>9.089389140271491</v>
+        <v>8.686968325791856</v>
       </c>
       <c r="J61" s="2">
         <f>C61*D61/G61</f>
-        <v>9.408688524590163</v>
+        <v>8.9921311475409844</v>
       </c>
       <c r="K61" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>19.88</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="D62">
         <v>5.64</v>
@@ -2899,18 +2944,18 @@
       </c>
       <c r="H62" s="2">
         <f>C62*D62/E62</f>
-        <v>20.349038112522685</v>
+        <v>20.666352087114337</v>
       </c>
       <c r="I62" s="2">
         <f>C62*D62/F62</f>
-        <v>16.017599999999998</v>
+        <v>16.26737142857143</v>
       </c>
       <c r="J62" s="2">
         <f>C62*D62/G62</f>
-        <v>13.237685950413221</v>
+        <v>13.444108618654072</v>
       </c>
       <c r="L62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,36 +2965,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>20160304</v>
-      </c>
-      <c r="B74">
-        <v>20170503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>17.05</v>
-      </c>
-      <c r="B75">
-        <v>35.19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>17.29</v>
-      </c>
-      <c r="B76">
-        <v>32.65</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>富祥股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w。 短期跌幅55%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生猪养殖与销售。人均70w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,23 +552,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安进食品明天弱低开可以考虑模拟入手，看效果如何。29附近都可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隆基股份关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从事尿素及TDI，周期股，TDI价格大涨，今年截止目前是赚大钱。最近的跌停没看到？是快要到历史高点？从估值看，近期的利润，估计第二季度依然是超好的财报，是可以支撑超越历史高点的，然而整个TDI价格周期？机构持仓很少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈打脸，大盘V，跌至28</t>
+    <t>12.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易多，业绩理论会好转。股东数增加16%略多，人均才20w。 短期跌幅55%。基金疯狂清仓基本结束，也许会迎来建仓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络股竟然没大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前估值还是高，机构微少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,10 +969,10 @@
         <v>74</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>45.4</v>
       </c>
       <c r="D2">
-        <v>4.8600000000000003</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="E2">
         <v>14.47</v>
@@ -989,15 +985,15 @@
       </c>
       <c r="H2" s="2">
         <f>C2*D2/E2</f>
-        <v>29.892190739460954</v>
+        <v>30.496751900483758</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I60" si="0">C2*D2/F2</f>
-        <v>23.897237569060774</v>
+        <v>24.380552486187845</v>
       </c>
       <c r="J2" s="2">
         <f>C2*D2/G2</f>
-        <v>19.448741007194247</v>
+        <v>19.842086330935253</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -1011,7 +1007,7 @@
         <v>63</v>
       </c>
       <c r="C3">
-        <v>18.149999999999999</v>
+        <v>13.27</v>
       </c>
       <c r="D3">
         <v>2.52</v>
@@ -1020,22 +1016,22 @@
         <v>1.42</v>
       </c>
       <c r="F3">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="G3">
-        <v>3.56</v>
+        <v>2.8</v>
       </c>
       <c r="H3" s="2">
         <f>C3*D3/E3</f>
-        <v>32.209859154929582</v>
+        <v>23.549577464788733</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>15.717525773195876</v>
+        <v>13.933499999999999</v>
       </c>
       <c r="J3" s="2">
         <f>C3*D3/G3</f>
-        <v>12.847752808988764</v>
+        <v>11.943</v>
       </c>
       <c r="L3" t="s">
         <v>101</v>
@@ -1046,7 +1042,7 @@
         <v>85</v>
       </c>
       <c r="C4">
-        <v>34.68</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="D4">
         <v>8.1</v>
@@ -1062,15 +1058,15 @@
       </c>
       <c r="H4" s="2">
         <f>C4*D4/E4</f>
-        <v>30.07580299785867</v>
+        <v>30.682869379014992</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>24.070951156812335</v>
+        <v>24.556812339331621</v>
       </c>
       <c r="J4" s="2">
         <f>C4*D4/G4</f>
-        <v>19.386335403726704</v>
+        <v>19.777639751552798</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
@@ -1084,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>48.27</v>
+        <v>51.69</v>
       </c>
       <c r="D5">
         <v>1.1200000000000001</v>
@@ -1100,15 +1096,15 @@
       </c>
       <c r="H5" s="2">
         <f>C5*D5/E5</f>
-        <v>30.717272727272732</v>
+        <v>32.893636363636361</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>20.793230769230771</v>
+        <v>22.266461538461538</v>
       </c>
       <c r="J5" s="2">
         <f>C5*D5/G5</f>
-        <v>15.579942363112394</v>
+        <v>16.683804034582131</v>
       </c>
       <c r="L5" t="s">
         <v>103</v>
@@ -1122,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5">
         <v>5.01</v>
@@ -1138,19 +1134,19 @@
       </c>
       <c r="H6" s="5">
         <f>C6*D6/E6</f>
-        <v>36.855172413793106</v>
+        <v>36.221724137931034</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>20.686451612903227</v>
+        <v>20.330903225806448</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J60" si="1">C6*D6/G6</f>
-        <v>14.250666666666667</v>
+        <v>14.005733333333332</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1225,10 +1221,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9">
-        <v>22.95</v>
+        <v>22.16</v>
       </c>
       <c r="D9">
         <v>252.2</v>
@@ -1244,18 +1240,18 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>9.3234375000000007</v>
+        <v>9.0024999999999995</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>8.5990046055563809</v>
+        <v>8.3030040112910406</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>7.7858353510895881</v>
+        <v>7.517826203927898</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1266,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>20.170000000000002</v>
+        <v>18.13</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1282,15 +1278,15 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>23.625183016105417</v>
+        <v>21.23572474377745</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>21.457446808510642</v>
+        <v>19.287234042553191</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>19.050767414403779</v>
+        <v>17.123966942148758</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1301,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>33.380000000000003</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1317,15 +1313,15 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>24.634686346863472</v>
+        <v>26.398523985239851</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>20.647422680412376</v>
+        <v>22.125773195876292</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>17.310285220397581</v>
+        <v>18.549697493517719</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1374,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>14.44</v>
+        <v>14.84</v>
       </c>
       <c r="D13">
         <v>19.96</v>
@@ -1390,21 +1386,21 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>18.631053652230122</v>
+        <v>19.147149321266969</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>14.534664649520929</v>
+        <v>14.937286938981345</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>11.42832672482157</v>
+        <v>11.744900872323555</v>
       </c>
       <c r="K13" t="s">
         <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1429,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>21.2</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="D15">
         <v>18.63</v>
@@ -1445,15 +1441,15 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>25.713281249999998</v>
+        <v>22.013964843749996</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>15.899999999999999</v>
+        <v>13.612499999999997</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>17.171999999999997</v>
+        <v>14.701499999999998</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -1481,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>30.9</v>
+        <v>32.76</v>
       </c>
       <c r="D17">
         <v>7.18</v>
@@ -1497,15 +1493,18 @@
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>32.53108504398827</v>
+        <v>34.489266862170084</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>24.461080485115765</v>
+        <v>25.933495038588752</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="1"/>
-        <v>18.550334448160534</v>
+        <v>19.666956521739127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1516,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>19.96</v>
+        <v>22.9</v>
       </c>
       <c r="D18">
         <v>20.85</v>
@@ -1525,22 +1524,22 @@
         <v>10.7</v>
       </c>
       <c r="F18">
-        <v>15.94</v>
+        <v>17.13</v>
       </c>
       <c r="G18">
-        <v>19.64</v>
+        <v>20.67</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>38.894018691588791</v>
+        <v>44.622897196261682</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>26.108281053952325</v>
+        <v>27.873029772329247</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>21.189714867617109</v>
+        <v>23.099419448476048</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
@@ -1554,7 +1553,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>26.18</v>
+        <v>25.9</v>
       </c>
       <c r="D19">
         <v>6.87</v>
@@ -1570,15 +1569,15 @@
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>34.521420345489446</v>
+        <v>34.152207293666024</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>25.990838150289019</v>
+        <v>25.712861271676299</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="1"/>
-        <v>20.028574610244988</v>
+        <v>19.81436525612472</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1589,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>242.7</v>
+        <v>270.27999999999997</v>
       </c>
       <c r="D20">
         <v>0.71</v>
@@ -1598,22 +1597,25 @@
         <v>5.85</v>
       </c>
       <c r="F20">
+        <v>6.7</v>
+      </c>
+      <c r="G20">
         <v>7.1</v>
       </c>
-      <c r="G20">
-        <v>8.2799999999999994</v>
-      </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>29.455897435897434</v>
+        <v>32.803213675213669</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>24.27</v>
+        <v>28.641611940298503</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
-        <v>20.811231884057971</v>
+        <v>27.027999999999995</v>
+      </c>
+      <c r="L20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1807,7 +1809,7 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>95.11</v>
+        <v>90.41</v>
       </c>
       <c r="D27">
         <v>4.45</v>
@@ -1823,15 +1825,15 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>49.38617269544924</v>
+        <v>46.945682613768959</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>36.644112554112553</v>
+        <v>34.833290043290042</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>29.659390329362299</v>
+        <v>28.193728100911002</v>
       </c>
       <c r="L27" t="s">
         <v>67</v>
@@ -2283,10 +2285,10 @@
         <v>7.622973239436619</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2321,7 +2323,7 @@
         <v>8.8660802980132463</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2356,12 +2358,12 @@
         <v>7.0243483275663197</v>
       </c>
       <c r="L42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>13.54</v>
@@ -2391,12 +2393,12 @@
         <v>5.655010434782608</v>
       </c>
       <c r="L43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>10.220000000000001</v>
@@ -2426,10 +2428,10 @@
         <v>4.2684052173913045</v>
       </c>
       <c r="K44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2437,7 +2439,7 @@
         <v>88</v>
       </c>
       <c r="C45">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D45">
         <v>7.53</v>
@@ -2453,15 +2455,15 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>66.861206896551735</v>
+        <v>63.940086206896559</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>30.869253731343285</v>
+        <v>29.520597014925372</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="1"/>
-        <v>23.343566591422128</v>
+        <v>22.323702031602711</v>
       </c>
       <c r="L45" t="s">
         <v>82</v>
@@ -2472,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="C46">
-        <v>36.54</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="D46">
         <v>3.25</v>
@@ -2488,18 +2490,18 @@
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>29.988636363636363</v>
+        <v>29.241792929292934</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>22.925675675675677</v>
+        <v>22.354729729729733</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="1"/>
-        <v>18.130534351145037</v>
+        <v>17.679007633587791</v>
       </c>
       <c r="L46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2507,7 +2509,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>25.15</v>
+        <v>23.7</v>
       </c>
       <c r="D47">
         <v>10.34</v>
@@ -2523,18 +2525,18 @@
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>11.238159031979256</v>
+        <v>10.590233362143474</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>8.6683666666666657</v>
+        <v>8.1685999999999996</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="1"/>
-        <v>8.3887419354838713</v>
+        <v>7.9050967741935478</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2756,7 +2758,7 @@
         <v>16.14</v>
       </c>
       <c r="D57">
-        <v>7.76</v>
+        <v>10.08</v>
       </c>
       <c r="E57">
         <v>6.71</v>
@@ -2769,15 +2771,15 @@
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>18.66563338301043</v>
+        <v>24.246080476900151</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>15.597310087173101</v>
+        <v>20.260423412204236</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="1"/>
-        <v>13.142329485834209</v>
+        <v>17.071479538300107</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2820,7 +2822,7 @@
         <v>73</v>
       </c>
       <c r="C59">
-        <v>22.58</v>
+        <v>24.31</v>
       </c>
       <c r="D59">
         <v>25.09</v>
@@ -2836,15 +2838,15 @@
       </c>
       <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>18.019472010178117</v>
+        <v>19.400060432569973</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>15.824921787709497</v>
+        <v>17.037371508379891</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="1"/>
-        <v>13.953995073891624</v>
+        <v>15.023100985221674</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,7 +2922,7 @@
         <v>109</v>
       </c>
       <c r="L61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2955,7 +2957,7 @@
         <v>13.444108618654072</v>
       </c>
       <c r="L62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2968,22 +2970,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
